--- a/Project Planning/Skills Audit/Individual Skill Audit/Rajbir Chand.xlsx
+++ b/Project Planning/Skills Audit/Individual Skill Audit/Rajbir Chand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Individual Skill Audit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\L5\Semester-2\MANA541 - Project Management - 14805 - WIN - 201910\The-Clehuderfax-e-chain\Project Planning\Skills Audit\Individual Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CABD955-437F-4C7E-8D1D-0CF1E5EC5AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCE70DC-BAC1-4F3C-9B75-EC79DB7ECD32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14835" yWindow="4230" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,9 +206,6 @@
     <t>Folllow youtube tutorials.</t>
   </si>
   <si>
-    <t>To become better at tools provided by GitHub for version control of our website.</t>
-  </si>
-  <si>
     <t>Adobe XD</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>To make professional presentation for our website.</t>
+  </si>
+  <si>
+    <t>To become better at tools provided by GitHub for version control and documentation of our website.</t>
   </si>
 </sst>
 </file>
@@ -439,14 +439,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -461,6 +453,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,19 +734,19 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF7F7F7F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF7F7F7F"/>
         </left>
         <right style="thin">
           <color rgb="FF7F7F7F"/>
         </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF7F7F7F"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B04E2D0-6D17-460D-80D3-86407A22E807}" name="Table1" displayName="Table1" ref="A6:H24" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B04E2D0-6D17-460D-80D3-86407A22E807}" name="Table1" displayName="Table1" ref="A6:H24" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A6:H24" xr:uid="{9D200FB8-4C5B-4F0B-BF50-5B5813460B0B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:H19">
     <sortCondition ref="A6:A19"/>
@@ -1102,8 +1102,8 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1119,29 +1119,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1154,11 +1154,11 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1479,22 +1479,22 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="20">
         <v>11</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="20">
         <v>3</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="20">
         <v>8</v>
       </c>
       <c r="G17" s="12">
@@ -1505,22 +1505,22 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="20">
         <v>12</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="20">
         <v>3</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="20">
         <v>10</v>
       </c>
       <c r="G18" s="12">
@@ -1531,22 +1531,22 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="20">
         <v>13</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="20">
         <v>2</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="20">
         <v>8</v>
       </c>
       <c r="G19" s="12">
@@ -1557,25 +1557,25 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
+      <c r="A20" s="23">
         <v>14</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="23">
         <v>3</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="23">
         <v>10</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="22">
         <v>43896</v>
       </c>
       <c r="H20" s="16" t="s">
@@ -1583,25 +1583,25 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
+      <c r="A21" s="23">
         <v>15</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="23">
         <v>3</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="23">
         <v>5</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="22">
         <v>43893</v>
       </c>
       <c r="H21" s="16" t="s">
@@ -1609,25 +1609,25 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="23">
         <v>16</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="23">
         <v>3</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="27">
+      <c r="E22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="23">
         <v>10</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="22">
         <v>43896</v>
       </c>
       <c r="H22" s="16" t="s">
@@ -1635,25 +1635,25 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="23">
         <v>17</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="23">
+        <v>3</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="27">
-        <v>3</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="27">
+      <c r="F23" s="23">
         <v>10</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="22">
         <v>43896</v>
       </c>
       <c r="H23" s="16" t="s">
@@ -1661,25 +1661,25 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="23">
         <v>18</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="23">
+        <v>4</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="27">
-        <v>4</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="27">
+      <c r="F24" s="23">
         <v>2</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="22">
         <v>43890</v>
       </c>
       <c r="H24" s="16" t="s">

--- a/Project Planning/Skills Audit/Individual Skill Audit/Rajbir Chand.xlsx
+++ b/Project Planning/Skills Audit/Individual Skill Audit/Rajbir Chand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\L5\Semester-2\MANA541 - Project Management - 14805 - WIN - 201910\The-Clehuderfax-e-chain\Project Planning\Skills Audit\Individual Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCE70DC-BAC1-4F3C-9B75-EC79DB7ECD32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B0B7E1-6D4D-4358-A808-2AD846D90241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,13 +212,13 @@
     <t>To develop prototype for user experience.</t>
   </si>
   <si>
-    <t>Microsoft Powerpoint</t>
-  </si>
-  <si>
-    <t>To make professional presentation for our website.</t>
-  </si>
-  <si>
     <t>To become better at tools provided by GitHub for version control and documentation of our website.</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>To make professional documentation for our website.</t>
   </si>
 </sst>
 </file>
@@ -1102,8 +1102,8 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1225,7 +1225,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7" s="12">
         <v>43898</v>
@@ -1252,7 +1252,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G8" s="12">
         <v>43898</v>
@@ -1279,7 +1279,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G9" s="12">
         <v>43896</v>
@@ -1306,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" s="12">
         <v>43892</v>
@@ -1333,7 +1333,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="12">
         <v>43890</v>
@@ -1360,7 +1360,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="12">
         <v>43890</v>
@@ -1440,8 +1440,8 @@
       <c r="E15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="9">
-        <v>10</v>
+      <c r="F15" s="7">
+        <v>2</v>
       </c>
       <c r="G15" s="12">
         <v>43898</v>
@@ -1467,8 +1467,8 @@
       <c r="E16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="9">
-        <v>5</v>
+      <c r="F16" s="7">
+        <v>2</v>
       </c>
       <c r="G16" s="12">
         <v>43893</v>
@@ -1494,8 +1494,8 @@
       <c r="E17" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="20">
-        <v>8</v>
+      <c r="F17" s="7">
+        <v>2</v>
       </c>
       <c r="G17" s="12">
         <v>43896</v>
@@ -1520,8 +1520,8 @@
       <c r="E18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="20">
-        <v>10</v>
+      <c r="F18" s="7">
+        <v>2</v>
       </c>
       <c r="G18" s="12">
         <v>43898</v>
@@ -1546,8 +1546,8 @@
       <c r="E19" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="20">
-        <v>8</v>
+      <c r="F19" s="7">
+        <v>2</v>
       </c>
       <c r="G19" s="12">
         <v>43896</v>
@@ -1572,8 +1572,8 @@
       <c r="E20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="23">
-        <v>10</v>
+      <c r="F20" s="7">
+        <v>2</v>
       </c>
       <c r="G20" s="22">
         <v>43896</v>
@@ -1598,8 +1598,8 @@
       <c r="E21" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="23">
-        <v>5</v>
+      <c r="F21" s="7">
+        <v>2</v>
       </c>
       <c r="G21" s="22">
         <v>43893</v>
@@ -1622,10 +1622,10 @@
         <v>57</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="23">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2</v>
       </c>
       <c r="G22" s="22">
         <v>43896</v>
@@ -1650,8 +1650,8 @@
       <c r="E23" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="23">
-        <v>10</v>
+      <c r="F23" s="7">
+        <v>2</v>
       </c>
       <c r="G23" s="22">
         <v>43896</v>
@@ -1665,7 +1665,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="23">
         <v>4</v>
@@ -1674,9 +1674,9 @@
         <v>54</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="23">
+        <v>62</v>
+      </c>
+      <c r="F24" s="7">
         <v>2</v>
       </c>
       <c r="G24" s="22">
